--- a/Expense Form_Ratchanon.xlsx
+++ b/Expense Form_Ratchanon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23815"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petong\Documents\งาน\Timesheet\เดือน11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB45D93B-346B-4720-B84F-2025527E4358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A05DD7-ED29-442B-B6EA-09ACABE589E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="11340" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>EXPENSE REPORT</t>
   </si>
   <si>
     <t>Name:</t>
-  </si>
-  <si>
-    <t>Ratchanon Sakdamanee</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
@@ -62,9 +59,6 @@
     </r>
   </si>
   <si>
-    <t>NCR</t>
-  </si>
-  <si>
     <t>Period:</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>.................................................</t>
   </si>
   <si>
-    <t>(   Ratchanon Sakdamanee    )</t>
-  </si>
-  <si>
     <t>(                                                          )</t>
   </si>
   <si>
@@ -171,15 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employee (Name &amp; Signature)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verified By: Line Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Approved by: Project Manager</t>
   </si>
 </sst>
 </file>
@@ -559,6 +541,96 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,96 +638,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,107 +903,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1056" name="Picture 8" descr="mp_logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19050" y="57150"/>
-          <a:ext cx="828675" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>634675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12577</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5DC8DE-656F-46C0-954A-82DCEC8395EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="41132" t="38841" r="25399" b="42075"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="257175" y="9001125"/>
-          <a:ext cx="1425250" cy="336427"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1351,7 +1232,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1371,19 +1252,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="62.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:15" ht="21.95" customHeight="1">
       <c r="A2" s="2"/>
@@ -1403,47 +1284,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -1460,38 +1337,38 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="43" t="s">
+      <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="O7" s="8">
         <v>0</v>
@@ -1501,17 +1378,17 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="11">
         <v>4</v>
       </c>
@@ -1524,17 +1401,17 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>1</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="11">
         <v>4</v>
       </c>
@@ -1547,17 +1424,17 @@
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="11">
         <v>4</v>
       </c>
@@ -1570,17 +1447,17 @@
       <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="34">
         <v>1</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="11">
         <v>4</v>
       </c>
@@ -1593,17 +1470,17 @@
       <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="34">
         <v>1</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="11">
         <v>4</v>
       </c>
@@ -1616,17 +1493,17 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="11">
         <v>4</v>
       </c>
@@ -1639,17 +1516,17 @@
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>1</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="11">
         <v>4</v>
       </c>
@@ -1662,17 +1539,17 @@
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="34">
         <v>1</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="11">
         <v>4</v>
       </c>
@@ -1685,17 +1562,17 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="34">
         <v>1</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="11">
         <v>4</v>
       </c>
@@ -1708,17 +1585,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="11">
         <v>4</v>
       </c>
@@ -1731,17 +1608,17 @@
       <c r="A18" s="10">
         <v>18</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="34">
         <v>1</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="11">
         <v>4</v>
       </c>
@@ -1754,17 +1631,17 @@
       <c r="A19" s="10">
         <v>19</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>1</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="11">
         <v>4</v>
       </c>
@@ -1777,17 +1654,17 @@
       <c r="A20" s="10">
         <v>20</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="11">
         <v>4</v>
       </c>
@@ -1800,17 +1677,17 @@
       <c r="A21" s="10">
         <v>21</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="34">
         <v>1</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="11">
         <v>4</v>
       </c>
@@ -1823,17 +1700,17 @@
       <c r="A22" s="10">
         <v>22</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="34">
         <v>1</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="11">
         <v>4</v>
       </c>
@@ -1846,17 +1723,17 @@
       <c r="A23" s="10">
         <v>25</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>1</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -1869,17 +1746,17 @@
       <c r="A24" s="10">
         <v>26</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>1</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="11">
         <v>4</v>
       </c>
@@ -1892,17 +1769,17 @@
       <c r="A25" s="10">
         <v>27</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>1</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="11">
         <v>4</v>
       </c>
@@ -1915,17 +1792,17 @@
       <c r="A26" s="10">
         <v>28</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>1</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="11">
         <v>4</v>
       </c>
@@ -1938,18 +1815,18 @@
       <c r="A27" s="10">
         <v>29</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>1</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="62">
+      <c r="C27" s="47"/>
+      <c r="D27" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="33">
         <v>4</v>
       </c>
       <c r="J27" s="12"/>
@@ -1961,18 +1838,18 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>2</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="62">
+      <c r="C28" s="47"/>
+      <c r="D28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="33">
         <v>6</v>
       </c>
       <c r="J28" s="12"/>
@@ -1982,14 +1859,14 @@
     </row>
     <row r="29" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="62"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
@@ -2020,14 +1897,14 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="A32" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -2035,33 +1912,33 @@
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="15"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" spans="1:11" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A34" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="18">
         <v>1</v>
       </c>
@@ -2072,16 +1949,16 @@
       <c r="G34" s="20"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="18">
         <v>2</v>
       </c>
@@ -2092,16 +1969,16 @@
       <c r="G35" s="20"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="A36" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="18">
         <v>3</v>
       </c>
@@ -2111,19 +1988,19 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="A37" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="18">
         <v>4</v>
       </c>
@@ -2133,19 +2010,19 @@
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="18">
         <v>5</v>
       </c>
@@ -2155,19 +2032,19 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="18">
         <v>6</v>
       </c>
@@ -2177,7 +2054,7 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2189,7 +2066,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40" s="24">
         <f>SUM(F35:F39)</f>
@@ -2207,7 +2084,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F41" s="24">
         <f>SUM(J8:J29)</f>
@@ -2233,80 +2110,70 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="1:11" ht="18" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="51"/>
-    </row>
-    <row r="44" spans="1:11" ht="18" customHeight="1">
-      <c r="A44" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="31"/>
       <c r="E45" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="55"/>
+        <v>38</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
+        <v>38</v>
+      </c>
+      <c r="J45" s="45"/>
+      <c r="K45" s="46"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="25"/>
@@ -2326,21 +2193,50 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="I43:K43"/>
     <mergeCell ref="A35:D35"/>
@@ -2357,50 +2253,21 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
